--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03459933333333334</v>
+        <v>0.01427633333333333</v>
       </c>
       <c r="H2">
-        <v>0.103798</v>
+        <v>0.042829</v>
       </c>
       <c r="I2">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="J2">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.065897</v>
+        <v>0.06687733333333333</v>
       </c>
       <c r="N2">
-        <v>0.197691</v>
+        <v>0.200632</v>
       </c>
       <c r="O2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608057</v>
       </c>
       <c r="P2">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608058</v>
       </c>
       <c r="Q2">
-        <v>0.002279992268666667</v>
+        <v>0.0009547631031111111</v>
       </c>
       <c r="R2">
-        <v>0.020519930418</v>
+        <v>0.008592867928</v>
       </c>
       <c r="S2">
-        <v>0.005052189473175532</v>
+        <v>0.00213791595264593</v>
       </c>
       <c r="T2">
-        <v>0.005052189473175532</v>
+        <v>0.00213791595264593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03459933333333334</v>
+        <v>0.01427633333333333</v>
       </c>
       <c r="H3">
-        <v>0.103798</v>
+        <v>0.042829</v>
       </c>
       <c r="I3">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="J3">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.634533</v>
       </c>
       <c r="O3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="P3">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="Q3">
-        <v>0.007318139592666667</v>
+        <v>0.003019601539666667</v>
       </c>
       <c r="R3">
-        <v>0.065863256334</v>
+        <v>0.027176413857</v>
       </c>
       <c r="S3">
-        <v>0.01621611981821373</v>
+        <v>0.006761524697856174</v>
       </c>
       <c r="T3">
-        <v>0.01621611981821373</v>
+        <v>0.006761524697856174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03459933333333334</v>
+        <v>0.01427633333333333</v>
       </c>
       <c r="H4">
-        <v>0.103798</v>
+        <v>0.042829</v>
       </c>
       <c r="I4">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="J4">
-        <v>0.0231827852665424</v>
+        <v>0.009697706618844965</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.07491299999999999</v>
       </c>
       <c r="O4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="P4">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="Q4">
-        <v>0.0008639799526666667</v>
+        <v>0.0003564943196666666</v>
       </c>
       <c r="R4">
-        <v>0.007775819573999999</v>
+        <v>0.003208448877</v>
       </c>
       <c r="S4">
-        <v>0.001914475975153136</v>
+        <v>0.0007982659683428593</v>
       </c>
       <c r="T4">
-        <v>0.001914475975153136</v>
+        <v>0.0007982659683428593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.530488</v>
       </c>
       <c r="I5">
-        <v>0.7885175551562142</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="J5">
-        <v>0.7885175551562144</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.065897</v>
+        <v>0.06687733333333333</v>
       </c>
       <c r="N5">
-        <v>0.197691</v>
+        <v>0.200632</v>
       </c>
       <c r="O5">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608057</v>
       </c>
       <c r="P5">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608058</v>
       </c>
       <c r="Q5">
-        <v>0.07754952257866667</v>
+        <v>0.07870320760177778</v>
       </c>
       <c r="R5">
-        <v>0.697945703208</v>
+        <v>0.7083288684160001</v>
       </c>
       <c r="S5">
-        <v>0.1718404430602954</v>
+        <v>0.1762330807589489</v>
       </c>
       <c r="T5">
-        <v>0.1718404430602954</v>
+        <v>0.176233080758949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.530488</v>
       </c>
       <c r="I6">
-        <v>0.7885175551562142</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="J6">
-        <v>0.7885175551562144</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.634533</v>
       </c>
       <c r="O6">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="P6">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="Q6">
         <v>0.2489123491226667</v>
@@ -818,10 +818,10 @@
         <v>2.240211142104</v>
       </c>
       <c r="S6">
-        <v>0.551559918541453</v>
+        <v>0.5573672466666243</v>
       </c>
       <c r="T6">
-        <v>0.551559918541453</v>
+        <v>0.5573672466666243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.530488</v>
       </c>
       <c r="I7">
-        <v>0.7885175551562142</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="J7">
-        <v>0.7885175551562144</v>
+        <v>0.7994031344498523</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.07491299999999999</v>
       </c>
       <c r="O7">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="P7">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="Q7">
         <v>0.02938660528266666</v>
@@ -880,10 +880,10 @@
         <v>0.264479447544</v>
       </c>
       <c r="S7">
-        <v>0.06511719355446582</v>
+        <v>0.06580280702427899</v>
       </c>
       <c r="T7">
-        <v>0.06511719355446584</v>
+        <v>0.06580280702427899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2810293333333333</v>
+        <v>0.2810293333333334</v>
       </c>
       <c r="H8">
-        <v>0.8430879999999999</v>
+        <v>0.8430880000000001</v>
       </c>
       <c r="I8">
-        <v>0.1882996595772432</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="J8">
-        <v>0.1882996595772433</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.065897</v>
+        <v>0.06687733333333333</v>
       </c>
       <c r="N8">
-        <v>0.197691</v>
+        <v>0.200632</v>
       </c>
       <c r="O8">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608057</v>
       </c>
       <c r="P8">
-        <v>0.2179284937115342</v>
+        <v>0.2204558290608058</v>
       </c>
       <c r="Q8">
-        <v>0.01851898997866666</v>
+        <v>0.01879449240177778</v>
       </c>
       <c r="R8">
-        <v>0.166670909808</v>
+        <v>0.169150431616</v>
       </c>
       <c r="S8">
-        <v>0.04103586117806328</v>
+        <v>0.04208483234921086</v>
       </c>
       <c r="T8">
-        <v>0.04103586117806329</v>
+        <v>0.04208483234921087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2810293333333333</v>
+        <v>0.2810293333333334</v>
       </c>
       <c r="H9">
-        <v>0.8430879999999999</v>
+        <v>0.8430880000000001</v>
       </c>
       <c r="I9">
-        <v>0.1882996595772432</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="J9">
-        <v>0.1882996595772433</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.634533</v>
       </c>
       <c r="O9">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="P9">
-        <v>0.6994897132406681</v>
+        <v>0.6972292484819982</v>
       </c>
       <c r="Q9">
-        <v>0.05944079532266666</v>
+        <v>0.05944079532266667</v>
       </c>
       <c r="R9">
-        <v>0.534967157904</v>
+        <v>0.5349671579040001</v>
       </c>
       <c r="S9">
-        <v>0.1317136748810013</v>
+        <v>0.1331004771175177</v>
       </c>
       <c r="T9">
-        <v>0.1317136748810013</v>
+        <v>0.1331004771175177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2810293333333333</v>
+        <v>0.2810293333333334</v>
       </c>
       <c r="H10">
-        <v>0.8430879999999999</v>
+        <v>0.8430880000000001</v>
       </c>
       <c r="I10">
-        <v>0.1882996595772432</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="J10">
-        <v>0.1882996595772433</v>
+        <v>0.1908991589313027</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,22 +1054,22 @@
         <v>0.07491299999999999</v>
       </c>
       <c r="O10">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="P10">
-        <v>0.08258179304779761</v>
+        <v>0.08231492245719596</v>
       </c>
       <c r="Q10">
-        <v>0.007017583482666664</v>
+        <v>0.007017583482666666</v>
       </c>
       <c r="R10">
         <v>0.06315825134399999</v>
       </c>
       <c r="S10">
-        <v>0.01555012351817864</v>
+        <v>0.01571384946457411</v>
       </c>
       <c r="T10">
-        <v>0.01555012351817864</v>
+        <v>0.01571384946457411</v>
       </c>
     </row>
   </sheetData>
